--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cadm1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.998339000000001</v>
+        <v>8.725531</v>
       </c>
       <c r="H2">
-        <v>23.995017</v>
+        <v>26.176593</v>
       </c>
       <c r="I2">
-        <v>0.6786582098098016</v>
+        <v>0.6695022935100516</v>
       </c>
       <c r="J2">
-        <v>0.6786582098098015</v>
+        <v>0.6695022935100517</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N2">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O2">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P2">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q2">
-        <v>9.956729638037</v>
+        <v>4.708412868013334</v>
       </c>
       <c r="R2">
-        <v>89.61056674233301</v>
+        <v>42.37571581212</v>
       </c>
       <c r="S2">
-        <v>0.06310317296982793</v>
+        <v>0.01732014769844728</v>
       </c>
       <c r="T2">
-        <v>0.06310317296982793</v>
+        <v>0.01732014769844728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.998339000000001</v>
+        <v>8.725531</v>
       </c>
       <c r="H3">
-        <v>23.995017</v>
+        <v>26.176593</v>
       </c>
       <c r="I3">
-        <v>0.6786582098098016</v>
+        <v>0.6695022935100516</v>
       </c>
       <c r="J3">
-        <v>0.6786582098098015</v>
+        <v>0.6695022935100517</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N3">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O3">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P3">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q3">
-        <v>32.79825818081301</v>
+        <v>54.625610940454</v>
       </c>
       <c r="R3">
-        <v>295.184323627317</v>
+        <v>491.630498464086</v>
       </c>
       <c r="S3">
-        <v>0.2078668633510229</v>
+        <v>0.2009432214481624</v>
       </c>
       <c r="T3">
-        <v>0.2078668633510229</v>
+        <v>0.2009432214481624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.998339000000001</v>
+        <v>8.725531</v>
       </c>
       <c r="H4">
-        <v>23.995017</v>
+        <v>26.176593</v>
       </c>
       <c r="I4">
-        <v>0.6786582098098016</v>
+        <v>0.6695022935100516</v>
       </c>
       <c r="J4">
-        <v>0.6786582098098015</v>
+        <v>0.6695022935100517</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N4">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O4">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P4">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q4">
-        <v>15.146622529419</v>
+        <v>10.314642156782</v>
       </c>
       <c r="R4">
-        <v>136.319602764771</v>
+        <v>92.831779411038</v>
       </c>
       <c r="S4">
-        <v>0.09599536957709928</v>
+        <v>0.03794296095522205</v>
       </c>
       <c r="T4">
-        <v>0.09599536957709927</v>
+        <v>0.03794296095522206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.998339000000001</v>
+        <v>8.725531</v>
       </c>
       <c r="H5">
-        <v>23.995017</v>
+        <v>26.176593</v>
       </c>
       <c r="I5">
-        <v>0.6786582098098016</v>
+        <v>0.6695022935100516</v>
       </c>
       <c r="J5">
-        <v>0.6786582098098015</v>
+        <v>0.6695022935100517</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N5">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O5">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P5">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q5">
-        <v>49.18042679337</v>
+        <v>112.3528543918643</v>
       </c>
       <c r="R5">
-        <v>442.6238411403301</v>
+        <v>1011.175689526779</v>
       </c>
       <c r="S5">
-        <v>0.3116928039118516</v>
+        <v>0.41329596340822</v>
       </c>
       <c r="T5">
-        <v>0.3116928039118515</v>
+        <v>0.4132959634082201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +794,10 @@
         <v>8.029004</v>
       </c>
       <c r="I6">
-        <v>0.2270867105947763</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="J6">
-        <v>0.2270867105947762</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N6">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O6">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P6">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q6">
-        <v>3.331634317688445</v>
+        <v>1.444185870595556</v>
       </c>
       <c r="R6">
-        <v>29.984708859196</v>
+        <v>12.99767283536</v>
       </c>
       <c r="S6">
-        <v>0.02111503518365669</v>
+        <v>0.005312514701642953</v>
       </c>
       <c r="T6">
-        <v>0.02111503518365668</v>
+        <v>0.005312514701642953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>8.029004</v>
       </c>
       <c r="I7">
-        <v>0.2270867105947763</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="J7">
-        <v>0.2270867105947762</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N7">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q7">
-        <v>10.97466803740045</v>
+        <v>16.75501654257867</v>
       </c>
       <c r="R7">
-        <v>98.77201233660401</v>
+        <v>150.795148883208</v>
       </c>
       <c r="S7">
-        <v>0.06955460282911308</v>
+        <v>0.06163422141224345</v>
       </c>
       <c r="T7">
-        <v>0.06955460282911306</v>
+        <v>0.06163422141224346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>8.029004</v>
       </c>
       <c r="I8">
-        <v>0.2270867105947763</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="J8">
-        <v>0.2270867105947762</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N8">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O8">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P8">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q8">
-        <v>5.068231161294667</v>
+        <v>3.163754088829334</v>
       </c>
       <c r="R8">
-        <v>45.614080451652</v>
+        <v>28.473786799464</v>
       </c>
       <c r="S8">
-        <v>0.03212113608071245</v>
+        <v>0.01163803804724785</v>
       </c>
       <c r="T8">
-        <v>0.03212113608071244</v>
+        <v>0.01163803804724785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>8.029004</v>
       </c>
       <c r="I9">
-        <v>0.2270867105947763</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="J9">
-        <v>0.2270867105947762</v>
+        <v>0.2053527971574215</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N9">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O9">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P9">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q9">
-        <v>16.45632688844</v>
+        <v>34.46137995589022</v>
       </c>
       <c r="R9">
-        <v>148.10694199596</v>
+        <v>310.152419603012</v>
       </c>
       <c r="S9">
-        <v>0.1042959365012941</v>
+        <v>0.1267680229962873</v>
       </c>
       <c r="T9">
-        <v>0.1042959365012941</v>
+        <v>0.1267680229962873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.044295666666667</v>
+        <v>0.735084</v>
       </c>
       <c r="H10">
-        <v>3.132887</v>
+        <v>2.205252</v>
       </c>
       <c r="I10">
-        <v>0.08860837577053603</v>
+        <v>0.05640234662194688</v>
       </c>
       <c r="J10">
-        <v>0.08860837577053601</v>
+        <v>0.05640234662194689</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N10">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O10">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P10">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q10">
-        <v>1.299991112551445</v>
+        <v>0.39666112752</v>
       </c>
       <c r="R10">
-        <v>11.699920012963</v>
+        <v>3.56995014768</v>
       </c>
       <c r="S10">
-        <v>0.008239006884467942</v>
+        <v>0.001459139100046223</v>
       </c>
       <c r="T10">
-        <v>0.008239006884467942</v>
+        <v>0.001459139100046223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.044295666666667</v>
+        <v>0.735084</v>
       </c>
       <c r="H11">
-        <v>3.132887</v>
+        <v>2.205252</v>
       </c>
       <c r="I11">
-        <v>0.08860837577053603</v>
+        <v>0.05640234662194688</v>
       </c>
       <c r="J11">
-        <v>0.08860837577053601</v>
+        <v>0.05640234662194689</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N11">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O11">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P11">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q11">
-        <v>4.282273968687445</v>
+        <v>4.601944866456</v>
       </c>
       <c r="R11">
-        <v>38.54046571818701</v>
+        <v>41.41750379810399</v>
       </c>
       <c r="S11">
-        <v>0.02713994301080079</v>
+        <v>0.01692849947985985</v>
       </c>
       <c r="T11">
-        <v>0.02713994301080079</v>
+        <v>0.01692849947985985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.044295666666667</v>
+        <v>0.735084</v>
       </c>
       <c r="H12">
-        <v>3.132887</v>
+        <v>2.205252</v>
       </c>
       <c r="I12">
-        <v>0.08860837577053603</v>
+        <v>0.05640234662194688</v>
       </c>
       <c r="J12">
-        <v>0.08860837577053601</v>
+        <v>0.05640234662194689</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N12">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q12">
-        <v>1.977604634175667</v>
+        <v>0.8689589682479999</v>
       </c>
       <c r="R12">
-        <v>17.798441707581</v>
+        <v>7.820630714231999</v>
       </c>
       <c r="S12">
-        <v>0.01253354583613297</v>
+        <v>0.003196511881146081</v>
       </c>
       <c r="T12">
-        <v>0.01253354583613297</v>
+        <v>0.003196511881146081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,14 +1207,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.044295666666667</v>
+        <v>0.735084</v>
       </c>
       <c r="H13">
-        <v>3.132887</v>
+        <v>2.205252</v>
       </c>
       <c r="I13">
-        <v>0.08860837577053603</v>
+        <v>0.05640234662194688</v>
       </c>
       <c r="J13">
-        <v>0.08860837577053601</v>
+        <v>0.05640234662194689</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N13">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O13">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P13">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q13">
-        <v>6.421196524070001</v>
+        <v>9.465187347083999</v>
       </c>
       <c r="R13">
-        <v>57.79076871663001</v>
+        <v>85.18668612375599</v>
       </c>
       <c r="S13">
-        <v>0.04069588003913433</v>
+        <v>0.03481819616089474</v>
       </c>
       <c r="T13">
-        <v>0.04069588003913432</v>
+        <v>0.03481819616089474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06654933333333334</v>
+        <v>0.8813406666666667</v>
       </c>
       <c r="H14">
-        <v>0.199648</v>
+        <v>2.644022</v>
       </c>
       <c r="I14">
-        <v>0.005646703824886112</v>
+        <v>0.06762449158647323</v>
       </c>
       <c r="J14">
-        <v>0.00564670382488611</v>
+        <v>0.06762449158647324</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N14">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O14">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P14">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q14">
-        <v>0.08284391541688889</v>
+        <v>0.4755831749422222</v>
       </c>
       <c r="R14">
-        <v>0.745595238752</v>
+        <v>4.280248574480001</v>
       </c>
       <c r="S14">
-        <v>0.0005250432736547011</v>
+        <v>0.001749458058118716</v>
       </c>
       <c r="T14">
-        <v>0.0005250432736547011</v>
+        <v>0.001749458058118716</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06654933333333334</v>
+        <v>0.8813406666666667</v>
       </c>
       <c r="H15">
-        <v>0.199648</v>
+        <v>2.644022</v>
       </c>
       <c r="I15">
-        <v>0.005646703824886112</v>
+        <v>0.06762449158647323</v>
       </c>
       <c r="J15">
-        <v>0.00564670382488611</v>
+        <v>0.06762449158647324</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N15">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O15">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P15">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q15">
-        <v>0.2728944367608889</v>
+        <v>5.517575075182667</v>
       </c>
       <c r="R15">
-        <v>2.456049930848</v>
+        <v>49.658175676644</v>
       </c>
       <c r="S15">
-        <v>0.001729534241809665</v>
+        <v>0.02029669400673393</v>
       </c>
       <c r="T15">
-        <v>0.001729534241809665</v>
+        <v>0.02029669400673393</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06654933333333334</v>
+        <v>0.8813406666666667</v>
       </c>
       <c r="H16">
-        <v>0.199648</v>
+        <v>2.644022</v>
       </c>
       <c r="I16">
-        <v>0.005646703824886112</v>
+        <v>0.06762449158647323</v>
       </c>
       <c r="J16">
-        <v>0.00564670382488611</v>
+        <v>0.06762449158647324</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N16">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O16">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P16">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q16">
-        <v>0.1260258700693333</v>
+        <v>1.041852191561333</v>
       </c>
       <c r="R16">
-        <v>1.134232830624</v>
+        <v>9.376669724052</v>
       </c>
       <c r="S16">
-        <v>0.000798719315153172</v>
+        <v>0.003832508818498577</v>
       </c>
       <c r="T16">
-        <v>0.0007987193151531717</v>
+        <v>0.003832508818498578</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8813406666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.644022</v>
+      </c>
+      <c r="I17">
+        <v>0.06762449158647323</v>
+      </c>
+      <c r="J17">
+        <v>0.06762449158647324</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.87633433333333</v>
+      </c>
+      <c r="N17">
+        <v>38.629003</v>
+      </c>
+      <c r="O17">
+        <v>0.6173182189435098</v>
+      </c>
+      <c r="P17">
+        <v>0.6173182189435098</v>
+      </c>
+      <c r="Q17">
+        <v>11.34843708556289</v>
+      </c>
+      <c r="R17">
+        <v>102.135933770066</v>
+      </c>
+      <c r="S17">
+        <v>0.04174583070312202</v>
+      </c>
+      <c r="T17">
+        <v>0.04174583070312202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01457166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.043715</v>
+      </c>
+      <c r="I18">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="J18">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5396133333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.61884</v>
+      </c>
+      <c r="O18">
+        <v>0.02587018426425635</v>
+      </c>
+      <c r="P18">
+        <v>0.02587018426425635</v>
+      </c>
+      <c r="Q18">
+        <v>0.007863065622222222</v>
+      </c>
+      <c r="R18">
+        <v>0.0707675906</v>
+      </c>
+      <c r="S18">
+        <v>2.892470600118291E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.892470600118292E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01457166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.043715</v>
+      </c>
+      <c r="I19">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="J19">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.260434</v>
+      </c>
+      <c r="N19">
+        <v>18.781302</v>
+      </c>
+      <c r="O19">
+        <v>0.3001382122153186</v>
+      </c>
+      <c r="P19">
+        <v>0.3001382122153186</v>
+      </c>
+      <c r="Q19">
+        <v>0.09122495743666666</v>
+      </c>
+      <c r="R19">
+        <v>0.82102461693</v>
+      </c>
+      <c r="S19">
+        <v>0.0003355758683189374</v>
+      </c>
+      <c r="T19">
+        <v>0.0003355758683189375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G17">
-        <v>0.06654933333333334</v>
-      </c>
-      <c r="H17">
-        <v>0.199648</v>
-      </c>
-      <c r="I17">
-        <v>0.005646703824886112</v>
-      </c>
-      <c r="J17">
-        <v>0.00564670382488611</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>6.14883</v>
-      </c>
-      <c r="N17">
-        <v>18.44649</v>
-      </c>
-      <c r="O17">
-        <v>0.4592780274465485</v>
-      </c>
-      <c r="P17">
-        <v>0.4592780274465486</v>
-      </c>
-      <c r="Q17">
-        <v>0.4092005372800001</v>
-      </c>
-      <c r="R17">
-        <v>3.68280483552</v>
-      </c>
-      <c r="S17">
-        <v>0.002593406994268574</v>
-      </c>
-      <c r="T17">
-        <v>0.002593406994268574</v>
+      <c r="G20">
+        <v>0.01457166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.043715</v>
+      </c>
+      <c r="I20">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="J20">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.182122</v>
+      </c>
+      <c r="N20">
+        <v>3.546366</v>
+      </c>
+      <c r="O20">
+        <v>0.0566733845769154</v>
+      </c>
+      <c r="P20">
+        <v>0.0566733845769154</v>
+      </c>
+      <c r="Q20">
+        <v>0.01722548774333333</v>
+      </c>
+      <c r="R20">
+        <v>0.15502938969</v>
+      </c>
+      <c r="S20">
+        <v>6.33648748008395E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.336487480083951E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01457166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.043715</v>
+      </c>
+      <c r="I21">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="J21">
+        <v>0.001118071124106636</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.87633433333333</v>
+      </c>
+      <c r="N21">
+        <v>38.629003</v>
+      </c>
+      <c r="O21">
+        <v>0.6173182189435098</v>
+      </c>
+      <c r="P21">
+        <v>0.6173182189435098</v>
+      </c>
+      <c r="Q21">
+        <v>0.1876296517938889</v>
+      </c>
+      <c r="R21">
+        <v>1.688666866145</v>
+      </c>
+      <c r="S21">
+        <v>0.0006902056749856766</v>
+      </c>
+      <c r="T21">
+        <v>0.0006902056749856767</v>
       </c>
     </row>
   </sheetData>
